--- a/biology/Zoologie/Anairetes/Anairetes.xlsx
+++ b/biology/Zoologie/Anairetes/Anairetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anairetes regroupe six espèces de passereaux de la famille des Tyrannidae.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite de l'étude phylogénétique de DuBay et al. (2012), le Congrès ornithologique international, dans sa classification version 3.3 (2013), sépare les espèces Taurillon agile et Taurillon uni et les place dans le genre Uromyias. Ces espèces sont proches génétiquement et anatomiquement, mais clairement distinctes[1].
-Liste d'espèces
-D'après la classification de référence (version 3.3, 2013) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'étude phylogénétique de DuBay et al. (2012), le Congrès ornithologique international, dans sa classification version 3.3 (2013), sépare les espèces Taurillon agile et Taurillon uni et les place dans le genre Uromyias. Ces espèces sont proches génétiquement et anatomiquement, mais clairement distinctes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anairetes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anairetes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 3.3, 2013) du Congrès ornithologique international (ordre phylogénique) :
 Anairetes nigrocristatus – Taurillon à cimier noir
 Anairetes reguloides – Taurillon roitelet
 Anairetes alpinus – Taurillon gris
